--- a/MA.xlsx
+++ b/MA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE7A3B38-A62C-4242-8FC7-1FFCCB32F5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF5651D-8CD8-4B56-8E40-A341BB7635D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27855" yWindow="1695" windowWidth="25545" windowHeight="17280" activeTab="1" xr2:uid="{E7BFF71A-2904-4F34-A901-1B8DEA033DF8}"/>
+    <workbookView xWindow="-26580" yWindow="1815" windowWidth="25965" windowHeight="16125" xr2:uid="{E7BFF71A-2904-4F34-A901-1B8DEA033DF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -519,19 +519,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10F05BA-E2E2-4BF2-B869-5C1F5041633C}">
   <dimension ref="I2:K7"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I2" t="s">
         <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>541.96</v>
-      </c>
-    </row>
-    <row r="3" spans="9:11" x14ac:dyDescent="0.2">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="3" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I3" t="s">
         <v>1</v>
       </c>
@@ -542,16 +544,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="3">
         <f>+J2*J3</f>
-        <v>502396.92000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="9:11" x14ac:dyDescent="0.2">
+        <v>543222</v>
+      </c>
+    </row>
+    <row r="5" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I5" t="s">
         <v>3</v>
       </c>
@@ -563,7 +565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I6" t="s">
         <v>4</v>
       </c>
@@ -575,13 +577,13 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="9:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="9:11" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>5</v>
       </c>
       <c r="J7" s="3">
         <f>+J4-J5+J6</f>
-        <v>511358.92000000004</v>
+        <v>552184</v>
       </c>
     </row>
   </sheetData>
@@ -593,25 +595,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{205891AB-6F07-4B83-AF2A-CD982404D2A5}">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
+    <sheetView zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2">
         <v>2022</v>
       </c>
@@ -622,7 +624,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
@@ -630,7 +632,7 @@
         <v>9800</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
@@ -638,7 +640,7 @@
         <v>3634</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>11</v>
       </c>
@@ -646,7 +648,7 @@
         <v>4865</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
@@ -654,7 +656,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>9</v>
       </c>
@@ -662,8 +664,8 @@
         <v>159.4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -672,8 +674,8 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="11" spans="1:5" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:5" s="4" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
@@ -687,7 +689,7 @@
         <v>28167</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
         <v>15</v>
       </c>
@@ -701,7 +703,7 @@
         <v>10193</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -715,7 +717,7 @@
         <v>815</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
         <v>17</v>
       </c>
@@ -732,7 +734,7 @@
         <v>17159</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
         <v>19</v>
       </c>
@@ -749,7 +751,7 @@
         <v>-319</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
         <v>20</v>
       </c>
@@ -766,7 +768,7 @@
         <v>16840</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
         <v>21</v>
       </c>
@@ -780,7 +782,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
         <v>22</v>
       </c>
@@ -797,7 +799,7 @@
         <v>14460</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>23</v>
       </c>
@@ -814,7 +816,7 @@
         <v>15.598705501618124</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>1</v>
       </c>
@@ -828,7 +830,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>14</v>
       </c>
@@ -841,7 +843,7 @@
         <v>0.12228065981353087</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
         <v>18</v>
       </c>
@@ -858,7 +860,7 @@
         <v>0.6091880569460717</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>25</v>
       </c>
@@ -872,7 +874,7 @@
         <v>14780</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>26</v>
       </c>
@@ -889,7 +891,7 @@
         <v>-1194</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>27</v>
       </c>
